--- a/storage/data/export.xlsx
+++ b/storage/data/export.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soda\Desktop\FluxMarchandises\FluxMarchandises\storage\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -44,9 +49,6 @@
     <t>valeur</t>
   </si>
   <si>
-    <t>TypeFlux</t>
-  </si>
-  <si>
     <t>pays</t>
   </si>
   <si>
@@ -482,18 +484,15 @@
     <t xml:space="preserve">En 2017, l'Argentine a été un fournisseur important de bœuf pour le Sénégal. Les importations de bœuf en provenance d'Argentine ont joué un rôle crucial dans la satisfaction de la demande nationale en viande bovine. La viande de bœuf argentine est réputée pour sa qualité, son goût savoureux et sa tendreté, ce qui en fait un choix prisé sur le marché international. Ces importations étaient généralement acheminées par voie maritime depuis les ports argentins jusqu'aux ports sénégalais, où la viande était ensuite distribuée à travers des réseaux de distribution alimentaire à travers tout le pays, y compris dans les centres urbains comme Dakar. Cette activité commerciale a renforcé les relations économiques entre l'Argentine et le Sénégal, tout en soutenant l'industrie alimentaire locale en diversifiant l'offre de viande bovine et en répondant aux besoins alimentaires de la population sénégalaise.
 </t>
   </si>
+  <si>
+    <t>TypedeFlux</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,346 +500,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -857,251 +526,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1113,61 +540,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1425,24 +808,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="51.9090909090909" customWidth="1"/>
-    <col min="5" max="5" width="10.5454545454545"/>
-    <col min="7" max="7" width="17.3636363636364" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1462,18 +845,18 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="255">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="203" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="2">
         <v>2022</v>
@@ -1485,18 +868,18 @@
         <v>50000000</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="270">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" ht="232" spans="1:7">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="C3" s="3">
         <v>2018</v>
@@ -1508,18 +891,18 @@
         <v>20000000</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="409.5">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" ht="409.5" spans="1:7">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="3">
         <v>2019</v>
@@ -1531,18 +914,18 @@
         <v>30000000</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="409.5">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" ht="391.5" spans="1:7">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="C5" s="3">
         <v>2020</v>
@@ -1554,18 +937,18 @@
         <v>40000000</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="409.5">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" ht="409.5" spans="1:7">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C6" s="3">
         <v>2021</v>
@@ -1577,18 +960,18 @@
         <v>5000000</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="409.5">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" ht="409.5" spans="1:7">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C7" s="3">
         <v>2018</v>
@@ -1600,18 +983,18 @@
         <v>25000000</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="409.5">
+      <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" ht="409.5" spans="1:7">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="C8" s="3">
         <v>2019</v>
@@ -1623,18 +1006,18 @@
         <v>30000000</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="409.5">
+      <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" ht="409.5" spans="1:7">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C9" s="3">
         <v>2020</v>
@@ -1646,18 +1029,18 @@
         <v>20000000</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="409.5">
+      <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" ht="409.5" spans="1:7">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="C10" s="3">
         <v>2021</v>
@@ -1669,18 +1052,18 @@
         <v>15000000</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="409.5">
+      <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" ht="409.5" spans="1:7">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C11" s="3">
         <v>2017</v>
@@ -1692,18 +1075,18 @@
         <v>10000000</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="409.5">
+      <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" ht="409.5" spans="1:7">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C12" s="3">
         <v>2018</v>
@@ -1715,18 +1098,18 @@
         <v>50000000</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="409.5">
+      <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" ht="409.5" spans="1:7">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="C13" s="3">
         <v>2020</v>
@@ -1738,18 +1121,18 @@
         <v>15000000</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="409.5">
+      <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" ht="409.5" spans="1:7">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C14" s="3">
         <v>2021</v>
@@ -1761,18 +1144,18 @@
         <v>40000000</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="409.5">
+      <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" ht="409.5" spans="1:7">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="C15" s="3">
         <v>2017</v>
@@ -1784,18 +1167,18 @@
         <v>18000000</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="409.5">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="16" ht="409.5" spans="1:7">
-      <c r="A16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="C16" s="3">
         <v>2018</v>
@@ -1807,18 +1190,18 @@
         <v>15000000</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="409.5">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="17" ht="409.5" spans="1:7">
-      <c r="A17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="C17" s="3">
         <v>2020</v>
@@ -1830,18 +1213,18 @@
         <v>22000000</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="18" ht="29" spans="1:7">
-      <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="C18" s="3">
         <v>2017</v>
@@ -1853,18 +1236,18 @@
         <v>20000000</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="390">
+      <c r="A19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="19" ht="362.5" spans="1:7">
-      <c r="A19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="C19" s="3">
         <v>2018</v>
@@ -1876,18 +1259,18 @@
         <v>30000000</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="409.5">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="20" ht="406" spans="1:7">
-      <c r="A20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="C20" s="3">
         <v>2019</v>
@@ -1899,18 +1282,18 @@
         <v>25000000</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="409.5">
+      <c r="A21" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" ht="406" spans="1:7">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="C21" s="3">
         <v>2020</v>
@@ -1922,18 +1305,18 @@
         <v>18000000</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="150">
+      <c r="A22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="22" ht="145" spans="1:7">
-      <c r="A22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="C22" s="3">
         <v>2017</v>
@@ -1945,18 +1328,18 @@
         <v>12000000</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="330">
+      <c r="A23" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" ht="304.5" spans="1:7">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="C23" s="3">
         <v>2019</v>
@@ -1968,18 +1351,18 @@
         <v>200000000</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="345">
+      <c r="A24" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" ht="304.5" spans="1:7">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="C24" s="3">
         <v>2020</v>
@@ -1991,18 +1374,18 @@
         <v>150000000</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" ht="188.5" spans="1:7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="225">
       <c r="A25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="C25" s="3">
         <v>2021</v>
@@ -2014,18 +1397,18 @@
         <v>50000000</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G25" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="345">
+      <c r="A26" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" ht="304.5" spans="1:7">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="C26" s="3">
         <v>2018</v>
@@ -2037,18 +1420,18 @@
         <v>80000000</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G26" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="409.5">
+      <c r="A27" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" ht="409.5" spans="1:7">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C27" s="3">
         <v>2021</v>
@@ -2060,18 +1443,18 @@
         <v>300000000</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" ht="232" spans="1:7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="255">
       <c r="A28" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="3">
         <v>2017</v>
@@ -2083,18 +1466,18 @@
         <v>120000000</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" ht="232" spans="1:7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="255">
       <c r="A29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="C29" s="3">
         <v>2019</v>
@@ -2106,18 +1489,18 @@
         <v>70000000</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" ht="319" spans="1:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="360">
       <c r="A30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="C30" s="3">
         <v>2020</v>
@@ -2129,18 +1512,18 @@
         <v>100000000</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" ht="246.5" spans="1:7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="285">
       <c r="A31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="C31" s="3">
         <v>2016</v>
@@ -2152,18 +1535,18 @@
         <v>60000000</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" ht="261" spans="1:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="300">
       <c r="A32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="C32" s="3">
         <v>2021</v>
@@ -2175,18 +1558,18 @@
         <v>40000000</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G32" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="285">
+      <c r="A33" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="33" ht="246.5" spans="1:7">
-      <c r="A33" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="C33" s="3">
         <v>2018</v>
@@ -2198,18 +1581,18 @@
         <v>90000000</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" ht="246.5" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="285">
       <c r="A34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="C34" s="3">
         <v>2019</v>
@@ -2221,18 +1604,18 @@
         <v>25000000</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="390">
+      <c r="A35" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="35" ht="348" spans="1:7">
-      <c r="A35" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="C35" s="3">
         <v>2020</v>
@@ -2244,18 +1627,18 @@
         <v>200000000</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" ht="246.5" spans="1:7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="285">
       <c r="A36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="C36" s="3">
         <v>2021</v>
@@ -2267,18 +1650,18 @@
         <v>100000000</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G36" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="255">
+      <c r="A37" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="37" ht="217.5" spans="1:7">
-      <c r="A37" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="C37" s="3">
         <v>2018</v>
@@ -2290,18 +1673,18 @@
         <v>150000000</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" ht="333.5" spans="1:7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="375">
       <c r="A38" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="C38" s="3">
         <v>2019</v>
@@ -2313,18 +1696,18 @@
         <v>10000000</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G38" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="255">
+      <c r="A39" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="39" ht="232" spans="1:7">
-      <c r="A39" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="C39" s="3">
         <v>2020</v>
@@ -2336,18 +1719,18 @@
         <v>80000000</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" ht="217.5" spans="1:7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="255">
       <c r="A40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="C40" s="3">
         <v>2018</v>
@@ -2359,18 +1742,18 @@
         <v>500000000</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" ht="203" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="225">
       <c r="A41" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="C41" s="3">
         <v>2018</v>
@@ -2382,18 +1765,18 @@
         <v>50000000</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" ht="232" spans="1:7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="255">
       <c r="A42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="C42" s="3">
         <v>2020</v>
@@ -2405,18 +1788,18 @@
         <v>90000000</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" ht="232" spans="1:7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="270">
       <c r="A43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="C43" s="3">
         <v>2017</v>
@@ -2428,18 +1811,18 @@
         <v>100000000</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G43" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="345">
+      <c r="A44" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="44" ht="319" spans="1:7">
-      <c r="A44" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="C44" s="3">
         <v>2019</v>
@@ -2451,18 +1834,18 @@
         <v>20000000</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G44" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="270">
+      <c r="A45" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="45" ht="246.5" spans="1:7">
-      <c r="A45" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="C45" s="3">
         <v>2016</v>
@@ -2474,18 +1857,18 @@
         <v>60000000</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G45" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="255">
+      <c r="A46" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="46" ht="232" spans="1:7">
-      <c r="A46" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="C46" s="3">
         <v>2019</v>
@@ -2497,18 +1880,18 @@
         <v>50000000</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G46" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="300">
+      <c r="A47" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="47" ht="261" spans="1:7">
-      <c r="A47" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="C47" s="3">
         <v>2021</v>
@@ -2520,18 +1903,18 @@
         <v>80000000</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G47" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="270">
+      <c r="A48" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="48" ht="232" spans="1:7">
-      <c r="A48" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="C48" s="3">
         <v>2018</v>
@@ -2543,18 +1926,18 @@
         <v>150000000</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" ht="333.5" spans="1:7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="360">
       <c r="A49" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="C49" s="3">
         <v>2017</v>
@@ -2566,14 +1949,13 @@
         <v>200000000</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>